--- a/Funktionstest.xlsx
+++ b/Funktionstest.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26704"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="1324" documentId="11_AD4DB114E441178AC67DF4BEBE93EE50683EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C268C1B-5996-4B25-9EDA-7EF1594109FD}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="681" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="681" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Äquivalenzklassen" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Testfalltabelle" sheetId="9" r:id="rId5"/>
     <sheet name="Testdaten" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,520 +43,520 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="201">
   <si>
-    <t>ÄK1</t>
-  </si>
-  <si>
-    <t>ÄK26</t>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>Funktionale Anforderung</t>
+  </si>
+  <si>
+    <t>Vorbedingung</t>
+  </si>
+  <si>
+    <t>Eingabefeld</t>
+  </si>
+  <si>
+    <t>Gültige Äquivalenzklasse</t>
+  </si>
+  <si>
+    <t>Ungültige Äquivalenzklasse</t>
+  </si>
+  <si>
+    <t>Äk1</t>
   </si>
   <si>
     <t>FA1</t>
   </si>
   <si>
+    <t>VB1</t>
+  </si>
+  <si>
+    <t>Anzahl Einzelzimmer, Anzahl Doppelzimmer</t>
+  </si>
+  <si>
+    <t>0 &lt; (Anzahl Einzelzimmer + Anzahl Doppelzimmer) &lt; 11</t>
+  </si>
+  <si>
+    <t>Äk2</t>
+  </si>
+  <si>
+    <t>Anzahl Einzelzimmer + Anzahl Doppelzimmer &lt; 1</t>
+  </si>
+  <si>
+    <t>Äk3</t>
+  </si>
+  <si>
+    <t>Anzahl Einzelzimmer + Anzahl Doppelzimmer &gt; 10</t>
+  </si>
+  <si>
+    <t>Äk4</t>
+  </si>
+  <si>
+    <t>Auswahl Hotel</t>
+  </si>
+  <si>
+    <t>Hotel ausgewählt</t>
+  </si>
+  <si>
+    <t>Äk5</t>
+  </si>
+  <si>
+    <t>Kein Hotel ausgewählt</t>
+  </si>
+  <si>
+    <t>Äk6</t>
+  </si>
+  <si>
+    <t>Auswahl Zahlungsmethode</t>
+  </si>
+  <si>
+    <t>Zahlungsmethode ausgewählt</t>
+  </si>
+  <si>
+    <t>Äk7</t>
+  </si>
+  <si>
+    <t>Keine Zahlungsmethode ausgewählt</t>
+  </si>
+  <si>
+    <t>Äk8</t>
+  </si>
+  <si>
+    <t>Start Buchung</t>
+  </si>
+  <si>
+    <t>Frühestens der heutige Tag</t>
+  </si>
+  <si>
+    <t>Äk9</t>
+  </si>
+  <si>
+    <t>Der gestrige Tag oder früher</t>
+  </si>
+  <si>
+    <t>Äk10</t>
+  </si>
+  <si>
+    <t>Ende Buchung</t>
+  </si>
+  <si>
+    <t>Frühestens der Tag nach Start Buchung</t>
+  </si>
+  <si>
+    <t>Äk11</t>
+  </si>
+  <si>
+    <t>Der Start Buchung Tag oder früher</t>
+  </si>
+  <si>
+    <t>Äk12</t>
+  </si>
+  <si>
+    <t>VB1, VB2</t>
+  </si>
+  <si>
+    <t>"Buchen" Button</t>
+  </si>
+  <si>
+    <t>Zimmer gebucht, Rückmeldung</t>
+  </si>
+  <si>
+    <t>Äk13</t>
+  </si>
+  <si>
+    <t>VB1, VB3</t>
+  </si>
+  <si>
+    <t>Zimmer nicht gebucht, Rückmeldung</t>
+  </si>
+  <si>
+    <t>Äk14</t>
+  </si>
+  <si>
+    <t>FA2</t>
+  </si>
+  <si>
+    <t>VB1, VB4</t>
+  </si>
+  <si>
+    <t>Auswahl Flug</t>
+  </si>
+  <si>
+    <t>Flug ausgewählt</t>
+  </si>
+  <si>
+    <t>Äk15</t>
+  </si>
+  <si>
+    <t>Auswahl Mietwagen</t>
+  </si>
+  <si>
+    <t>Mietwagen ausgewählt</t>
+  </si>
+  <si>
+    <t>Äk16</t>
+  </si>
+  <si>
+    <t>Auswahl Wellness-Angebot</t>
+  </si>
+  <si>
+    <t>Wellness-Angebot ausgewählt</t>
+  </si>
+  <si>
+    <t>Äk17</t>
+  </si>
+  <si>
+    <t>Auswahl Dienstleistungs-Typ</t>
+  </si>
+  <si>
+    <t>Dienstleistungs-Typ ausgewählt</t>
+  </si>
+  <si>
+    <t>Äk18</t>
+  </si>
+  <si>
+    <t>Dienstleistung ausgewählt, aber kein Dienstleistungs-Typ ausgewählt</t>
+  </si>
+  <si>
+    <t>Äk19</t>
+  </si>
+  <si>
+    <t>VB1, VB4, VB5</t>
+  </si>
+  <si>
+    <t>Dienstleistung gebucht, Rückmeldung</t>
+  </si>
+  <si>
+    <t>Äk20</t>
+  </si>
+  <si>
+    <t>VB1, VB4, VB6</t>
+  </si>
+  <si>
+    <t>Dienstleistung nicht gebucht, Rückmeldung</t>
+  </si>
+  <si>
+    <t>Äk21</t>
+  </si>
+  <si>
     <t>FA4</t>
   </si>
   <si>
-    <t>FA5</t>
-  </si>
-  <si>
-    <t>Funktionale Anforderung</t>
-  </si>
-  <si>
-    <t>Gültige Äquivalenzklasse</t>
-  </si>
-  <si>
-    <t>Ungültige Äquivalenzklasse</t>
-  </si>
-  <si>
-    <t>Nr.</t>
-  </si>
-  <si>
-    <t>Untergrenze</t>
-  </si>
-  <si>
-    <t>Obergrenze</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>GW1</t>
-  </si>
-  <si>
-    <t>GW3</t>
-  </si>
-  <si>
-    <t>GW4</t>
-  </si>
-  <si>
-    <t>Kommentar</t>
-  </si>
-  <si>
-    <t>Ein Kunde muss eine Adresse haben</t>
-  </si>
-  <si>
-    <t>Eine Buchung umfasst 1-10 Hotelzimmer</t>
-  </si>
-  <si>
-    <t>Ein Passwort muss mindestens 12 Zeichen lang sein</t>
-  </si>
-  <si>
-    <t>Ursache</t>
-  </si>
-  <si>
-    <t>Fehler</t>
-  </si>
-  <si>
-    <t>Eingabefeld</t>
-  </si>
-  <si>
-    <t>Beschreibung</t>
-  </si>
-  <si>
-    <t>VB1</t>
-  </si>
-  <si>
-    <t>Vorbedingung</t>
-  </si>
-  <si>
-    <t>FA2</t>
-  </si>
-  <si>
-    <t>VB2</t>
-  </si>
-  <si>
-    <t>VB3</t>
-  </si>
-  <si>
-    <t>Start Buchung</t>
-  </si>
-  <si>
-    <t>Ende Buchung</t>
-  </si>
-  <si>
-    <t>Frühestens der Tag nach Start Buchung</t>
-  </si>
-  <si>
-    <t>Der Start Buchung Tag oder früher</t>
-  </si>
-  <si>
-    <t>Anzahl Einzelzimmer, Anzahl Doppelzimmer</t>
-  </si>
-  <si>
-    <t>Anzahl Einzelzimmer + Anzahl Doppelzimmer &lt; 1</t>
-  </si>
-  <si>
-    <t>Anzahl Einzelzimmer + Anzahl Doppelzimmer &gt; 10</t>
-  </si>
-  <si>
-    <t>0 &lt; (Anzahl Einzelzimmer + Anzahl Doppelzimmer) &lt; 11</t>
-  </si>
-  <si>
-    <t>Frühestens der heutige Tag</t>
-  </si>
-  <si>
-    <t>Der gestrige Tag oder früher</t>
-  </si>
-  <si>
-    <t>Ausgewählte Zimmer verfügbar</t>
-  </si>
-  <si>
-    <t>Ausgewählte Zimmer nicht verfügbar</t>
-  </si>
-  <si>
-    <t>VB1, VB2</t>
-  </si>
-  <si>
-    <t>"Buchen" Button</t>
-  </si>
-  <si>
-    <t>VB1, VB3</t>
-  </si>
-  <si>
-    <t>Zimmer nicht gebucht, Rückmeldung</t>
-  </si>
-  <si>
-    <t>Zimmer gebucht, Rückmeldung</t>
-  </si>
-  <si>
-    <t>Auswahl Hotel</t>
-  </si>
-  <si>
-    <t>Kunde eingeloggt und Adresse hinterlegt und Zahlungsmethode hinterlegt</t>
-  </si>
-  <si>
-    <t>Auswahl Zahlungsmethode</t>
-  </si>
-  <si>
-    <t>Aktuelle Buchung enthält mindestens ein Hoteltzimmer</t>
-  </si>
-  <si>
-    <t>VB4</t>
-  </si>
-  <si>
-    <t>VB1, VB4</t>
-  </si>
-  <si>
-    <t>Auswahl Flug</t>
-  </si>
-  <si>
-    <t>Auswahl Mietwagen</t>
-  </si>
-  <si>
-    <t>Auswahl Wellness-Angebot</t>
-  </si>
-  <si>
-    <t>Auswahl Dienstleistungs-Typ</t>
-  </si>
-  <si>
-    <t>Ausgewählte Dienstleistung verfügbar</t>
-  </si>
-  <si>
-    <t>Ausgewählte Dienstleistung nicht verfügbar</t>
-  </si>
-  <si>
-    <t>VB5</t>
-  </si>
-  <si>
-    <t>VB6</t>
-  </si>
-  <si>
-    <t>VB1, VB4, VB5</t>
-  </si>
-  <si>
-    <t>VB1, VB4, VB6</t>
-  </si>
-  <si>
-    <t>Dienstleistung gebucht, Rückmeldung</t>
-  </si>
-  <si>
-    <t>Dienstleistung nicht gebucht, Rückmeldung</t>
-  </si>
-  <si>
     <t>E-Mail</t>
-  </si>
-  <si>
-    <t>Regex-Überprüfung schlägt fehl</t>
-  </si>
-  <si>
-    <t>Benutzername</t>
   </si>
   <si>
     <t>Valide E-Mail (Regex: "^[a-z0-9._%+-]+@[a-z0-9.-]+\.[a-z]{2,4}$"),
 für die noch kein Account existiert</t>
   </si>
   <si>
+    <t>Äk22</t>
+  </si>
+  <si>
+    <t>Regex-Überprüfung schlägt fehl</t>
+  </si>
+  <si>
+    <t>Äk23</t>
+  </si>
+  <si>
     <t>Account mit E-Mail existiert bereits</t>
   </si>
   <si>
+    <t>Äk24</t>
+  </si>
+  <si>
+    <t>Benutzername</t>
+  </si>
+  <si>
+    <t>Benutzername, für den noch kein Account existiert</t>
+  </si>
+  <si>
+    <t>Äk25</t>
+  </si>
+  <si>
     <t>Account mit Benutzernamen existiert bereits</t>
   </si>
   <si>
-    <t>Benutzername, für den noch kein Account existiert</t>
+    <t>Äk26</t>
   </si>
   <si>
     <t>Passwort</t>
   </si>
   <si>
+    <t>12 Zeichen, Klein- und Großbuchstaben, Ziffern und Sonderzeichen</t>
+  </si>
+  <si>
+    <t>Äk27</t>
+  </si>
+  <si>
     <t>Länge &lt; 12 Zeichen</t>
   </si>
   <si>
+    <t>Äk28</t>
+  </si>
+  <si>
+    <t>Kein Kleinbuchstabe</t>
+  </si>
+  <si>
+    <t>Äk29</t>
+  </si>
+  <si>
+    <t>Kein Großbuchstabe</t>
+  </si>
+  <si>
+    <t>Äk30</t>
+  </si>
+  <si>
     <t>Keine Ziffern</t>
   </si>
   <si>
-    <t>12 Zeichen, Klein- und Großbuchstaben, Ziffern und Sonderzeichen</t>
-  </si>
-  <si>
-    <t>Kein Kleinbuchstabe</t>
-  </si>
-  <si>
-    <t>Kein Großbuchstabe</t>
+    <t>Äk31</t>
   </si>
   <si>
     <t>Kein Sonderzeichen</t>
   </si>
   <si>
+    <t>Äk32</t>
+  </si>
+  <si>
     <t>Passwort Bestätigen</t>
   </si>
   <si>
     <t>Stimmt mit Passwort überein</t>
   </si>
   <si>
+    <t>Äk33</t>
+  </si>
+  <si>
     <t>Stimmt nicht mit Passwort überein</t>
   </si>
   <si>
+    <t>Äk34</t>
+  </si>
+  <si>
+    <t>FA5</t>
+  </si>
+  <si>
+    <t>VB7</t>
+  </si>
+  <si>
+    <t>Token</t>
+  </si>
+  <si>
+    <t>Eingegebenes Token stimmt mit Token aus E-Mail überein</t>
+  </si>
+  <si>
+    <t>Äk35</t>
+  </si>
+  <si>
+    <t>Eingegebenes Token stimmt nicht mit Token aus E-Mail überein</t>
+  </si>
+  <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
+    <t>Kunde eingeloggt und Adresse hinterlegt und Zahlungsmethode hinterlegt</t>
+  </si>
+  <si>
+    <t>VB2</t>
+  </si>
+  <si>
+    <t>Ausgewählte Zimmer verfügbar</t>
+  </si>
+  <si>
+    <t>VB3</t>
+  </si>
+  <si>
+    <t>Ausgewählte Zimmer nicht verfügbar</t>
+  </si>
+  <si>
+    <t>VB4</t>
+  </si>
+  <si>
+    <t>Aktuelle Buchung enthält mindestens ein Hoteltzimmer</t>
+  </si>
+  <si>
+    <t>VB5</t>
+  </si>
+  <si>
+    <t>Ausgewählte Dienstleistung verfügbar</t>
+  </si>
+  <si>
+    <t>VB6</t>
+  </si>
+  <si>
+    <t>Ausgewählte Dienstleistung nicht verfügbar</t>
+  </si>
+  <si>
     <t>Kunde hat sich mit seiner E-Mail registriert und E-Mail mit Token erhalten</t>
   </si>
   <si>
-    <t>VB7</t>
-  </si>
-  <si>
-    <t>Token</t>
-  </si>
-  <si>
-    <t>Eingegebenes Token stimmt mit Token aus E-Mail überein</t>
-  </si>
-  <si>
-    <t>Eingegebenes Token stimmt nicht mit Token aus E-Mail überein</t>
-  </si>
-  <si>
-    <t>Äk1</t>
-  </si>
-  <si>
-    <t>Äk2</t>
-  </si>
-  <si>
-    <t>Äk3</t>
-  </si>
-  <si>
-    <t>Äk4</t>
-  </si>
-  <si>
-    <t>Äk5</t>
-  </si>
-  <si>
-    <t>Äk6</t>
-  </si>
-  <si>
-    <t>Äk7</t>
-  </si>
-  <si>
-    <t>Äk8</t>
-  </si>
-  <si>
-    <t>Äk9</t>
-  </si>
-  <si>
-    <t>Äk10</t>
-  </si>
-  <si>
-    <t>Äk11</t>
-  </si>
-  <si>
-    <t>Äk12</t>
-  </si>
-  <si>
-    <t>Äk13</t>
-  </si>
-  <si>
-    <t>Äk14</t>
-  </si>
-  <si>
-    <t>Äk15</t>
-  </si>
-  <si>
-    <t>Äk16</t>
-  </si>
-  <si>
-    <t>Äk17</t>
-  </si>
-  <si>
-    <t>Äk18</t>
-  </si>
-  <si>
-    <t>Äk19</t>
-  </si>
-  <si>
-    <t>Äk20</t>
-  </si>
-  <si>
-    <t>Äk21</t>
-  </si>
-  <si>
-    <t>Äk22</t>
-  </si>
-  <si>
-    <t>Äk23</t>
-  </si>
-  <si>
-    <t>Äk24</t>
-  </si>
-  <si>
-    <t>Äk25</t>
-  </si>
-  <si>
-    <t>Äk26</t>
-  </si>
-  <si>
-    <t>Äk27</t>
-  </si>
-  <si>
-    <t>Äk28</t>
-  </si>
-  <si>
-    <t>Äk29</t>
-  </si>
-  <si>
-    <t>Äk30</t>
-  </si>
-  <si>
-    <t>Äk31</t>
-  </si>
-  <si>
-    <t>Äk32</t>
-  </si>
-  <si>
-    <t>Äk33</t>
-  </si>
-  <si>
-    <t>Äk34</t>
-  </si>
-  <si>
-    <t>Äk35</t>
-  </si>
-  <si>
     <t>Aquivalenzklasse/Vorbedingung</t>
   </si>
   <si>
+    <t>Untergrenze</t>
+  </si>
+  <si>
+    <t>Obergrenze</t>
+  </si>
+  <si>
+    <t>Kommentar</t>
+  </si>
+  <si>
+    <t>GW1</t>
+  </si>
+  <si>
+    <t>Ein Kunde muss eine Adresse haben</t>
+  </si>
+  <si>
+    <t>GW3</t>
+  </si>
+  <si>
+    <t>ÄK1</t>
+  </si>
+  <si>
+    <t>Eine Buchung umfasst 1-10 Hotelzimmer</t>
+  </si>
+  <si>
+    <t>GW4</t>
+  </si>
+  <si>
+    <t>ÄK26</t>
+  </si>
+  <si>
+    <t>Ein Passwort muss mindestens 12 Zeichen lang sein</t>
+  </si>
+  <si>
+    <t>Ursache</t>
+  </si>
+  <si>
     <t>zulässige Anzahl Einzelzimmer, Doppelzimmer</t>
   </si>
   <si>
+    <t>zu wenige Zimmer</t>
+  </si>
+  <si>
+    <t>zu viele Zimmer</t>
+  </si>
+  <si>
+    <t>kein Hotel ausgewählt</t>
+  </si>
+  <si>
+    <t>keine Zahlungsmethode ausgewählt</t>
+  </si>
+  <si>
+    <t>zulässiges Startdatum</t>
+  </si>
+  <si>
+    <t>unzulässiges Startdatum</t>
+  </si>
+  <si>
+    <t>zulässiges Enddatum</t>
+  </si>
+  <si>
+    <t>unzulässiges Enddatum</t>
+  </si>
+  <si>
+    <t>Zimmer verfügbar und Buchung</t>
+  </si>
+  <si>
+    <t>Zimmer nicht verfügbar und Buchung</t>
+  </si>
+  <si>
+    <t>Dienstleistungstyp ausgewählt</t>
+  </si>
+  <si>
+    <t>Dienstleistung ausgewählt, aber kein Dienstleistungstyp ausgewählt</t>
+  </si>
+  <si>
+    <t>Dienstleistung verfügbar und Buchung</t>
+  </si>
+  <si>
+    <t>Dienstleistung nicht verfügbar und Buchung</t>
+  </si>
+  <si>
+    <t>Valide E-Mail-Adresse eingegeben, für die noch kein Account existiert</t>
+  </si>
+  <si>
+    <t>E-Mail entspricht nicht Format</t>
+  </si>
+  <si>
+    <t>Benutzername, für den kein Account existiert</t>
+  </si>
+  <si>
+    <t>Account mit Benutzername existiert bereits</t>
+  </si>
+  <si>
+    <t>gültiges Passwort</t>
+  </si>
+  <si>
+    <t>zu kurzes Passwort</t>
+  </si>
+  <si>
+    <t>Passwort ohne Kleinbuchstabe</t>
+  </si>
+  <si>
+    <t>Passwort ohne Großbuchstabe</t>
+  </si>
+  <si>
+    <t>Passwort ohne Ziffer</t>
+  </si>
+  <si>
+    <t>Passwort ohne Sonderzeichen</t>
+  </si>
+  <si>
+    <t>Bestätigungspasswort stimmt mit Passwort überein</t>
+  </si>
+  <si>
+    <t>Bestätigungspasswort stimmt nicht mit Passwort überein</t>
+  </si>
+  <si>
+    <t>E-Mail validierungstoken stimmt</t>
+  </si>
+  <si>
+    <t>E-Mail validierungstoken stimmt nicht</t>
+  </si>
+  <si>
+    <t>Äquivalenzklasse</t>
+  </si>
+  <si>
+    <t>Testfall</t>
+  </si>
+  <si>
+    <t>Ursachen:</t>
+  </si>
+  <si>
+    <t>Wirkungen:</t>
+  </si>
+  <si>
+    <t>Dienstleistung gebucht &amp; Rückmeldung</t>
+  </si>
+  <si>
+    <t>Dienstleistung nicht gebucht &amp; Rückmeldung</t>
+  </si>
+  <si>
+    <t>Fehler</t>
+  </si>
+  <si>
+    <t>Login freigeschaltet</t>
+  </si>
+  <si>
+    <t>Login gesperrt</t>
+  </si>
+  <si>
+    <t>Zimmer gebucht &amp; Rückmeldung</t>
+  </si>
+  <si>
+    <t>Zimmer nicht gebucht &amp; Rückmeldung</t>
+  </si>
+  <si>
+    <t>zulässige Auswahl</t>
+  </si>
+  <si>
     <t>zulässige Eingabe</t>
   </si>
   <si>
-    <t>zu wenige Zimmer</t>
-  </si>
-  <si>
-    <t>zu viele Zimmer</t>
-  </si>
-  <si>
-    <t>zulässige Auswahl</t>
-  </si>
-  <si>
-    <t>zulässiges Startdatum</t>
-  </si>
-  <si>
-    <t>unzulässiges Startdatum</t>
-  </si>
-  <si>
-    <t>zulässiges Enddatum</t>
-  </si>
-  <si>
-    <t>unzulässiges Enddatum</t>
-  </si>
-  <si>
-    <t>Zimmer verfügbar und Buchung</t>
-  </si>
-  <si>
-    <t>Zimmer nicht verfügbar und Buchung</t>
-  </si>
-  <si>
-    <t>Hotel ausgewählt</t>
-  </si>
-  <si>
-    <t>Kein Hotel ausgewählt</t>
-  </si>
-  <si>
-    <t>Zahlungsmethode ausgewählt</t>
-  </si>
-  <si>
-    <t>Keine Zahlungsmethode ausgewählt</t>
-  </si>
-  <si>
-    <t>Flug ausgewählt</t>
-  </si>
-  <si>
-    <t>Dienstleistungs-Typ ausgewählt</t>
-  </si>
-  <si>
-    <t>Mietwagen ausgewählt</t>
-  </si>
-  <si>
-    <t>Wellness-Angebot ausgewählt</t>
-  </si>
-  <si>
-    <t>Dienstleistung ausgewählt, aber kein Dienstleistungs-Typ ausgewählt</t>
-  </si>
-  <si>
-    <t>kein Hotel ausgewählt</t>
-  </si>
-  <si>
-    <t>keine Zahlungsmethode ausgewählt</t>
-  </si>
-  <si>
-    <t>Dienstleistungstyp ausgewählt</t>
-  </si>
-  <si>
-    <t>Dienstleistung ausgewählt, aber kein Dienstleistungstyp ausgewählt</t>
-  </si>
-  <si>
-    <t>Dienstleistung verfügbar und Buchung</t>
-  </si>
-  <si>
-    <t>Dienstleistung nicht verfügbar und Buchung</t>
-  </si>
-  <si>
-    <t>E-Mail entspricht nicht Format</t>
-  </si>
-  <si>
-    <t>Valide E-Mail-Adresse eingegeben, für die noch kein Account existiert</t>
-  </si>
-  <si>
-    <t>Benutzername, für den kein Account existiert</t>
-  </si>
-  <si>
-    <t>Account mit Benutzername existiert bereits</t>
-  </si>
-  <si>
-    <t>gültiges Passwort</t>
-  </si>
-  <si>
-    <t>zu kurzes Passwort</t>
-  </si>
-  <si>
-    <t>Passwort ohne Kleinbuchstabe</t>
-  </si>
-  <si>
-    <t>Passwort ohne Großbuchstabe</t>
-  </si>
-  <si>
-    <t>Passwort ohne Ziffer</t>
-  </si>
-  <si>
-    <t>Passwort ohne Sonderzeichen</t>
-  </si>
-  <si>
-    <t>Bestätigungspasswort stimmt mit Passwort überein</t>
-  </si>
-  <si>
-    <t>Bestätigungspasswort stimmt nicht mit Passwort überein</t>
-  </si>
-  <si>
-    <t>E-Mail validierungstoken stimmt</t>
-  </si>
-  <si>
-    <t>Login freigeschaltet</t>
-  </si>
-  <si>
-    <t>E-Mail validierungstoken stimmt nicht</t>
-  </si>
-  <si>
-    <t>Login gesperrt</t>
-  </si>
-  <si>
-    <t>Äquivalenzklasse</t>
-  </si>
-  <si>
-    <t>Testfall</t>
-  </si>
-  <si>
-    <t>Ursachen:</t>
-  </si>
-  <si>
-    <t>Wirkungen:</t>
-  </si>
-  <si>
-    <t>Dienstleistung nicht gebucht &amp; Rückmeldung</t>
-  </si>
-  <si>
-    <t>Dienstleistung gebucht &amp; Rückmeldung</t>
-  </si>
-  <si>
-    <t>Zimmer gebucht &amp; Rückmeldung</t>
-  </si>
-  <si>
-    <t>Zimmer nicht gebucht &amp; Rückmeldung</t>
-  </si>
-  <si>
     <t>Testeingabedaten:</t>
   </si>
   <si>
@@ -566,92 +566,92 @@
     <t>Anzahl Doppelzimmer</t>
   </si>
   <si>
+    <t>Hotel A</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Bar</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>A380</t>
+  </si>
+  <si>
+    <t>BMW3</t>
+  </si>
+  <si>
+    <t>Mini</t>
+  </si>
+  <si>
+    <t>Sauna</t>
+  </si>
+  <si>
+    <t>Langstreckenflug</t>
+  </si>
+  <si>
+    <t>PKW</t>
+  </si>
+  <si>
+    <t>Gruppe</t>
+  </si>
+  <si>
+    <t>Kurzstreckenflug</t>
+  </si>
+  <si>
+    <t>a@b.de</t>
+  </si>
+  <si>
+    <t>@...</t>
+  </si>
+  <si>
+    <t>se.sta@chabbay.de</t>
+  </si>
+  <si>
+    <t>greisch</t>
+  </si>
+  <si>
+    <t>se-sta</t>
+  </si>
+  <si>
+    <t>SE2023ist:)!</t>
+  </si>
+  <si>
+    <t>SE2023ist:)</t>
+  </si>
+  <si>
+    <t>SE2023IST:)!</t>
+  </si>
+  <si>
+    <t>se2023ist:)!</t>
+  </si>
+  <si>
+    <t>SEsüüüüist:)!</t>
+  </si>
+  <si>
+    <t>SE2023ist420</t>
+  </si>
+  <si>
+    <t>ChabbaY</t>
+  </si>
+  <si>
+    <t>richtiges Token</t>
+  </si>
+  <si>
+    <t>falsches Token</t>
+  </si>
+  <si>
     <t>Testausgabedaten:</t>
-  </si>
-  <si>
-    <t>Hotel A</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Bar</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>BMW3</t>
-  </si>
-  <si>
-    <t>A380</t>
-  </si>
-  <si>
-    <t>Sauna</t>
-  </si>
-  <si>
-    <t>Kurzstreckenflug</t>
-  </si>
-  <si>
-    <t>Mini</t>
-  </si>
-  <si>
-    <t>Langstreckenflug</t>
-  </si>
-  <si>
-    <t>PKW</t>
-  </si>
-  <si>
-    <t>Gruppe</t>
-  </si>
-  <si>
-    <t>a@b.de</t>
-  </si>
-  <si>
-    <t>@...</t>
-  </si>
-  <si>
-    <t>se.sta@chabbay.de</t>
-  </si>
-  <si>
-    <t>greisch</t>
-  </si>
-  <si>
-    <t>se-sta</t>
-  </si>
-  <si>
-    <t>SE2023ist:)!</t>
-  </si>
-  <si>
-    <t>SE2023ist:)</t>
-  </si>
-  <si>
-    <t>SE2023IST:)!</t>
-  </si>
-  <si>
-    <t>se2023ist:)!</t>
-  </si>
-  <si>
-    <t>SEsüüüüist:)!</t>
-  </si>
-  <si>
-    <t>SE2023ist420</t>
-  </si>
-  <si>
-    <t>ChabbaY</t>
-  </si>
-  <si>
-    <t>richtiges Token</t>
-  </si>
-  <si>
-    <t>falsches Token</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -788,10 +788,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1063,629 +1059,629 @@
       <selection activeCell="A2" sqref="A2:A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="5.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.81640625" customWidth="1"/>
-    <col min="6" max="6" width="58.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.85546875" customWidth="1"/>
+    <col min="6" max="6" width="58.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
         <v>32</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
         <v>45</v>
       </c>
-      <c r="E5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
         <v>47</v>
       </c>
-      <c r="E7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
         <v>51</v>
       </c>
-      <c r="E15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17" t="s">
         <v>52</v>
       </c>
-      <c r="E16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
         <v>53</v>
       </c>
-      <c r="E17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>101</v>
-      </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
         <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
         <v>54</v>
       </c>
       <c r="F19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C20" t="s">
         <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>104</v>
-      </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="29.1">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="s">
         <v>65</v>
       </c>
-      <c r="E25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>109</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D26" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
         <v>65</v>
       </c>
-      <c r="F26" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>110</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E27" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F32" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D33" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="E33" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D34" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="F34" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D35" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="E35" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="F36" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1700,74 +1696,74 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
       <c r="B2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1783,55 +1779,55 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="4.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="43.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
@@ -1840,24 +1836,24 @@
         <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="C4" s="3">
         <v>12</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1874,298 +1870,298 @@
       <selection activeCell="C1" sqref="C1:C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="3.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2183,15 +2179,15 @@
       <selection activeCell="A3" sqref="A1:AJ3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="38.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="36" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B1" s="3">
         <v>1</v>
@@ -2299,9 +2295,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36">
       <c r="A2" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -2409,12 +2405,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36">
       <c r="A3" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -2524,7 +2520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -2634,7 +2630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -2744,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -2854,7 +2850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -2964,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:36">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -3074,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -3184,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:36">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -3294,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:36">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -3404,7 +3400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:36">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -3514,7 +3510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:36">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -3624,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:36">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -3734,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:36">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -3844,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:36">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -3954,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:36">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -4064,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:36">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -4174,7 +4170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:36">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -4284,7 +4280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:36">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -4394,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:36">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -4504,7 +4500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:36">
       <c r="A23" s="3">
         <v>20</v>
       </c>
@@ -4614,7 +4610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:36">
       <c r="A24" s="3">
         <v>21</v>
       </c>
@@ -4724,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:36">
       <c r="A25" s="3">
         <v>22</v>
       </c>
@@ -4834,7 +4830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:36">
       <c r="A26" s="3">
         <v>23</v>
       </c>
@@ -4944,7 +4940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:36">
       <c r="A27" s="3">
         <v>24</v>
       </c>
@@ -5054,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:36">
       <c r="A28" s="3">
         <v>25</v>
       </c>
@@ -5164,7 +5160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:36">
       <c r="A29" s="3">
         <v>26</v>
       </c>
@@ -5274,7 +5270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:36">
       <c r="A30" s="3">
         <v>27</v>
       </c>
@@ -5384,7 +5380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:36">
       <c r="A31" s="3">
         <v>28</v>
       </c>
@@ -5494,7 +5490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:36">
       <c r="A32" s="3">
         <v>29</v>
       </c>
@@ -5604,7 +5600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:36">
       <c r="A33" s="3">
         <v>30</v>
       </c>
@@ -5714,7 +5710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:36">
       <c r="A34" s="3">
         <v>31</v>
       </c>
@@ -5824,7 +5820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:36">
       <c r="A35" s="3">
         <v>32</v>
       </c>
@@ -5934,7 +5930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:36">
       <c r="A36" s="3">
         <v>33</v>
       </c>
@@ -6044,7 +6040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:36">
       <c r="A37" s="3">
         <v>34</v>
       </c>
@@ -6154,7 +6150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:36">
       <c r="A38" s="3">
         <v>35</v>
       </c>
@@ -6264,894 +6260,894 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:36">
       <c r="A40" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:36">
+      <c r="A41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>1</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:36">
+      <c r="A42" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>1</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:36">
+      <c r="A43" t="s">
+        <v>164</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3">
+        <v>1</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>1</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>1</v>
+      </c>
+      <c r="X43" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:36">
+      <c r="A44" t="s">
+        <v>165</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:36">
+      <c r="A45" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="B45" s="3">
+        <v>0</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:36">
+      <c r="A46" t="s">
+        <v>167</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>1</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:36">
+      <c r="A47" t="s">
         <v>168</v>
       </c>
-      <c r="B41" s="3">
-        <v>0</v>
-      </c>
-      <c r="C41" s="3">
-        <v>0</v>
-      </c>
-      <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3">
-        <v>1</v>
-      </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>167</v>
-      </c>
-      <c r="B42" s="3">
-        <v>0</v>
-      </c>
-      <c r="C42" s="3">
-        <v>0</v>
-      </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
-      <c r="R42" s="3">
-        <v>0</v>
-      </c>
-      <c r="S42" s="3">
-        <v>0</v>
-      </c>
-      <c r="T42" s="3">
-        <v>0</v>
-      </c>
-      <c r="U42" s="3">
-        <v>1</v>
-      </c>
-      <c r="V42" s="3">
-        <v>0</v>
-      </c>
-      <c r="W42" s="3">
-        <v>0</v>
-      </c>
-      <c r="X42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH42" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI42" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="3">
-        <v>0</v>
-      </c>
-      <c r="C43" s="3">
-        <v>1</v>
-      </c>
-      <c r="D43" s="3">
-        <v>1</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>1</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3">
-        <v>1</v>
-      </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-      <c r="U43" s="3">
-        <v>0</v>
-      </c>
-      <c r="V43" s="3">
-        <v>0</v>
-      </c>
-      <c r="W43" s="3">
-        <v>1</v>
-      </c>
-      <c r="X43" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA43" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC43" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD43" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE43" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF43" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG43" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH43" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI43" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>160</v>
-      </c>
-      <c r="B44" s="3">
-        <v>0</v>
-      </c>
-      <c r="C44" s="3">
-        <v>0</v>
-      </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-      <c r="R44" s="3">
-        <v>0</v>
-      </c>
-      <c r="S44" s="3">
-        <v>0</v>
-      </c>
-      <c r="T44" s="3">
-        <v>0</v>
-      </c>
-      <c r="U44" s="3">
-        <v>0</v>
-      </c>
-      <c r="V44" s="3">
-        <v>0</v>
-      </c>
-      <c r="W44" s="3">
-        <v>0</v>
-      </c>
-      <c r="X44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE44" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF44" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG44" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH44" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI44" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>162</v>
-      </c>
-      <c r="B45" s="3">
-        <v>0</v>
-      </c>
-      <c r="C45" s="3">
-        <v>0</v>
-      </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ45" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="B47" s="3">
+        <v>0</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>1</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:36">
+      <c r="A48" t="s">
         <v>169</v>
       </c>
-      <c r="B46" s="3">
-        <v>0</v>
-      </c>
-      <c r="C46" s="3">
-        <v>0</v>
-      </c>
-      <c r="D46" s="3">
-        <v>0</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3">
-        <v>1</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
-      <c r="X46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="B48" s="3">
+        <v>0</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>1</v>
+      </c>
+      <c r="P48" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>1</v>
+      </c>
+      <c r="R48" s="3">
+        <v>1</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:36">
+      <c r="A49" t="s">
         <v>170</v>
-      </c>
-      <c r="B47" s="3">
-        <v>0</v>
-      </c>
-      <c r="C47" s="3">
-        <v>0</v>
-      </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>1</v>
-      </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
-      </c>
-      <c r="R47" s="3">
-        <v>0</v>
-      </c>
-      <c r="S47" s="3">
-        <v>0</v>
-      </c>
-      <c r="T47" s="3">
-        <v>0</v>
-      </c>
-      <c r="U47" s="3">
-        <v>0</v>
-      </c>
-      <c r="V47" s="3">
-        <v>0</v>
-      </c>
-      <c r="W47" s="3">
-        <v>0</v>
-      </c>
-      <c r="X47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI47" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>125</v>
-      </c>
-      <c r="B48" s="3">
-        <v>0</v>
-      </c>
-      <c r="C48" s="3">
-        <v>0</v>
-      </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3">
-        <v>1</v>
-      </c>
-      <c r="P48" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>1</v>
-      </c>
-      <c r="R48" s="3">
-        <v>1</v>
-      </c>
-      <c r="S48" s="3">
-        <v>0</v>
-      </c>
-      <c r="T48" s="3">
-        <v>0</v>
-      </c>
-      <c r="U48" s="3">
-        <v>0</v>
-      </c>
-      <c r="V48" s="3">
-        <v>0</v>
-      </c>
-      <c r="W48" s="3">
-        <v>0</v>
-      </c>
-      <c r="X48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI48" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>122</v>
       </c>
       <c r="B49" s="3">
         <v>1</v>
@@ -7280,41 +7276,41 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="Z9" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="AL20" sqref="AL20"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AL20" sqref="AL20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="38.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="6.6328125" customWidth="1"/>
-    <col min="6" max="6" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="6.6328125" customWidth="1"/>
-    <col min="10" max="13" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.6328125" customWidth="1"/>
-    <col min="16" max="16" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.6328125" customWidth="1"/>
-    <col min="18" max="18" width="7.08984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="6.6328125" customWidth="1"/>
-    <col min="23" max="23" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.6328125" customWidth="1"/>
-    <col min="25" max="25" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="6.6328125" customWidth="1"/>
-    <col min="28" max="28" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="6.5703125" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="6.5703125" customWidth="1"/>
+    <col min="10" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.5703125" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5703125" customWidth="1"/>
+    <col min="18" max="18" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="6.5703125" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.5703125" customWidth="1"/>
+    <col min="25" max="25" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="6.5703125" customWidth="1"/>
+    <col min="28" max="28" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B1" s="3">
         <v>1</v>
@@ -7425,9 +7421,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:37">
       <c r="A2" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -7538,12 +7534,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:37">
       <c r="A3" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:37">
       <c r="A4" t="s">
         <v>172</v>
       </c>
@@ -7560,103 +7556,103 @@
         <v>5</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
       <c r="A5" t="s">
         <v>173</v>
       </c>
@@ -7673,355 +7669,355 @@
         <v>6</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AG5" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AI5" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AJ5" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AK5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="I7" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AA7" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AD7" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AH7" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AI7" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AJ7" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AK7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="J8" s="6">
         <f ca="1">TODAY()</f>
@@ -8032,117 +8028,117 @@
         <v>45114</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AD8" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AF8" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AH8" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AI8" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AJ8" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AK8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="L9" s="6">
         <f ca="1">J8+1</f>
@@ -8153,1209 +8149,1209 @@
         <v>45115</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="U9" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AA9" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AD9" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AG9" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AH9" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AI9" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AJ9" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AK9" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
       <c r="A10" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="N10" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK10" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK10" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>180</v>
-      </c>
       <c r="Q11" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AA11" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AB11" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AC11" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AD11" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AF11" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AG11" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AH11" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AI11" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AJ11" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AK11" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>179</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AF12" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AH12" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AJ12" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AK12" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>181</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AA13" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AB13" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AC13" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AD13" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AE13" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AF13" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AG13" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AH13" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AI13" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AJ13" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="AK13" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37">
       <c r="A14" t="s">
         <v>54</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="P14" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="T14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK14" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="W15" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK14" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="W15" s="7" t="s">
+      <c r="X15" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="X15" s="8" t="s">
+      <c r="Y15" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="Y15" s="7" t="s">
+      <c r="Z15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK15" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z16" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="Z15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z16" s="3" t="s">
+      <c r="AA16" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="AA16" s="3" t="s">
+      <c r="AB16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK16" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB17" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="AB16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK16" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB17" s="3" t="s">
+      <c r="AC17" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="AC17" s="3" t="s">
+      <c r="AD17" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="AD17" s="3" t="s">
+      <c r="AE17" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="AE17" s="3" t="s">
+      <c r="AF17" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="AF17" s="3" t="s">
+      <c r="AG17" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="AG17" s="3" t="s">
+      <c r="AH17" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI17" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK17" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH18" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI18" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="AH17" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="AI17" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="AJ17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK17" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH18" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="AI18" s="3" t="s">
+      <c r="AJ18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK18" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37">
+      <c r="A19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ19" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="AJ18" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK18" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ19" s="3" t="s">
+      <c r="AK19" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="AK19" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:37">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -9393,918 +9389,918 @@
       <c r="AJ20" s="3"/>
       <c r="AK20" s="3"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:37">
       <c r="A21" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37">
       <c r="A22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>1</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37">
+      <c r="A23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>1</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37">
+      <c r="A24" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>1</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37">
+      <c r="A25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37">
+      <c r="A26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37">
+      <c r="A27" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>1</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37">
+      <c r="A28" t="s">
         <v>168</v>
       </c>
-      <c r="B22" s="3">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
-        <v>1</v>
-      </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>167</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-      <c r="V23" s="3">
-        <v>1</v>
-      </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="3">
-        <v>0</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>1</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3">
-        <v>1</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-      <c r="X24" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AG24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>160</v>
-      </c>
-      <c r="B25" s="3">
-        <v>0</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3">
-        <v>0</v>
-      </c>
-      <c r="J25" s="3">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3">
-        <v>0</v>
-      </c>
-      <c r="L25" s="3">
-        <v>0</v>
-      </c>
-      <c r="M25" s="3">
-        <v>0</v>
-      </c>
-      <c r="N25" s="3">
-        <v>0</v>
-      </c>
-      <c r="O25" s="3">
-        <v>0</v>
-      </c>
-      <c r="P25" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>0</v>
-      </c>
-      <c r="R25" s="3">
-        <v>0</v>
-      </c>
-      <c r="S25" s="3">
-        <v>0</v>
-      </c>
-      <c r="T25" s="3">
-        <v>0</v>
-      </c>
-      <c r="U25" s="3">
-        <v>0</v>
-      </c>
-      <c r="V25" s="3">
-        <v>0</v>
-      </c>
-      <c r="W25" s="3">
-        <v>0</v>
-      </c>
-      <c r="X25" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>162</v>
-      </c>
-      <c r="B26" s="3">
-        <v>0</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="B28" s="3">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>1</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37">
+      <c r="A29" t="s">
         <v>169</v>
       </c>
-      <c r="B27" s="3">
-        <v>0</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>1</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="B29" s="3">
+        <v>0</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>1</v>
+      </c>
+      <c r="R29" s="3">
+        <v>1</v>
+      </c>
+      <c r="S29" s="3">
+        <v>1</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37">
+      <c r="A30" t="s">
         <v>170</v>
-      </c>
-      <c r="B28" s="3">
-        <v>0</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
-      <c r="I28" s="3">
-        <v>0</v>
-      </c>
-      <c r="J28" s="3">
-        <v>0</v>
-      </c>
-      <c r="K28" s="3">
-        <v>0</v>
-      </c>
-      <c r="L28" s="3">
-        <v>0</v>
-      </c>
-      <c r="M28" s="3">
-        <v>0</v>
-      </c>
-      <c r="N28" s="3">
-        <v>0</v>
-      </c>
-      <c r="O28" s="3">
-        <v>1</v>
-      </c>
-      <c r="P28" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="3">
-        <v>0</v>
-      </c>
-      <c r="R28" s="3">
-        <v>0</v>
-      </c>
-      <c r="S28" s="3">
-        <v>0</v>
-      </c>
-      <c r="T28" s="3">
-        <v>0</v>
-      </c>
-      <c r="U28" s="3">
-        <v>0</v>
-      </c>
-      <c r="V28" s="3">
-        <v>0</v>
-      </c>
-      <c r="W28" s="3">
-        <v>0</v>
-      </c>
-      <c r="X28" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="3">
-        <v>0</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>1</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>1</v>
-      </c>
-      <c r="R29" s="3">
-        <v>1</v>
-      </c>
-      <c r="S29" s="3">
-        <v>1</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>122</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
